--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H2">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N2">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O2">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P2">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q2">
-        <v>79.41043282820084</v>
+        <v>95.30054467532221</v>
       </c>
       <c r="R2">
-        <v>79.41043282820084</v>
+        <v>857.7049020778999</v>
       </c>
       <c r="S2">
-        <v>0.008480571606864044</v>
+        <v>0.007919338791533805</v>
       </c>
       <c r="T2">
-        <v>0.008480571606864044</v>
+        <v>0.007919338791533804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H3">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N3">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O3">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P3">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q3">
-        <v>141.287253518803</v>
+        <v>197.262665246416</v>
       </c>
       <c r="R3">
-        <v>141.287253518803</v>
+        <v>1775.363987217744</v>
       </c>
       <c r="S3">
-        <v>0.01508865558251749</v>
+        <v>0.01639224500058722</v>
       </c>
       <c r="T3">
-        <v>0.01508865558251749</v>
+        <v>0.01639224500058722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H4">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N4">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O4">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P4">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q4">
-        <v>13.80459479054507</v>
+        <v>18.56817597142966</v>
       </c>
       <c r="R4">
-        <v>13.80459479054507</v>
+        <v>167.113583742867</v>
       </c>
       <c r="S4">
-        <v>0.001474250302579697</v>
+        <v>0.00154298883347984</v>
       </c>
       <c r="T4">
-        <v>0.001474250302579697</v>
+        <v>0.00154298883347984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H5">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N5">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O5">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P5">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q5">
-        <v>22.12764490194436</v>
+        <v>26.00355213217189</v>
       </c>
       <c r="R5">
-        <v>22.12764490194436</v>
+        <v>234.031969189547</v>
       </c>
       <c r="S5">
-        <v>0.002363103567111622</v>
+        <v>0.002160857944931616</v>
       </c>
       <c r="T5">
-        <v>0.002363103567111622</v>
+        <v>0.002160857944931616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H6">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.536034250878437</v>
+        <v>0.684233</v>
       </c>
       <c r="N6">
-        <v>0.536034250878437</v>
+        <v>2.052699</v>
       </c>
       <c r="O6">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="P6">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="Q6">
-        <v>29.78157774448003</v>
+        <v>42.31615063152766</v>
       </c>
       <c r="R6">
-        <v>29.78157774448003</v>
+        <v>380.845355683749</v>
       </c>
       <c r="S6">
-        <v>0.003180499005387095</v>
+        <v>0.003516411520483387</v>
       </c>
       <c r="T6">
-        <v>0.003180499005387095</v>
+        <v>0.003516411520483387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H7">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N7">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O7">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P7">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q7">
-        <v>1945.809496880799</v>
+        <v>2097.8397660267</v>
       </c>
       <c r="R7">
-        <v>1945.809496880799</v>
+        <v>18880.5578942403</v>
       </c>
       <c r="S7">
-        <v>0.2078011186176729</v>
+        <v>0.1743274804369451</v>
       </c>
       <c r="T7">
-        <v>0.2078011186176729</v>
+        <v>0.1743274804369451</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H8">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N8">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O8">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P8">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q8">
-        <v>3461.989437582575</v>
+        <v>4342.320024677711</v>
       </c>
       <c r="R8">
-        <v>3461.989437582575</v>
+        <v>39080.8802220994</v>
       </c>
       <c r="S8">
-        <v>0.3697203035165876</v>
+        <v>0.3608405758208533</v>
       </c>
       <c r="T8">
-        <v>0.3697203035165876</v>
+        <v>0.3608405758208534</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H9">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N9">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O9">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P9">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q9">
-        <v>338.2567086889706</v>
+        <v>408.7390902974909</v>
       </c>
       <c r="R9">
-        <v>338.2567086889706</v>
+        <v>3678.651812677419</v>
       </c>
       <c r="S9">
-        <v>0.03612384591512065</v>
+        <v>0.03396563308674724</v>
       </c>
       <c r="T9">
-        <v>0.03612384591512065</v>
+        <v>0.03396563308674726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H10">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N10">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O10">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P10">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q10">
-        <v>542.1980470369491</v>
+        <v>572.413157833131</v>
       </c>
       <c r="R10">
-        <v>542.1980470369491</v>
+        <v>5151.71842049818</v>
       </c>
       <c r="S10">
-        <v>0.05790359275520478</v>
+        <v>0.04756671371665431</v>
       </c>
       <c r="T10">
-        <v>0.05790359275520478</v>
+        <v>0.04756671371665432</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H11">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.536034250878437</v>
+        <v>0.684233</v>
       </c>
       <c r="N11">
-        <v>0.536034250878437</v>
+        <v>2.052699</v>
       </c>
       <c r="O11">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="P11">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="Q11">
-        <v>729.7438729829425</v>
+        <v>931.5004845190768</v>
       </c>
       <c r="R11">
-        <v>729.7438729829425</v>
+        <v>8383.504360671694</v>
       </c>
       <c r="S11">
-        <v>0.07793239438564531</v>
+        <v>0.07740635634892312</v>
       </c>
       <c r="T11">
-        <v>0.07793239438564531</v>
+        <v>0.07740635634892315</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H12">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I12">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J12">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N12">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O12">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P12">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q12">
-        <v>344.6417184482713</v>
+        <v>386.7934416735333</v>
       </c>
       <c r="R12">
-        <v>344.6417184482713</v>
+        <v>3481.1409750618</v>
       </c>
       <c r="S12">
-        <v>0.03680572776043715</v>
+        <v>0.03214198111240463</v>
       </c>
       <c r="T12">
-        <v>0.03680572776043715</v>
+        <v>0.03214198111240463</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H13">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I13">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J13">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N13">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O13">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P13">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q13">
-        <v>613.187463074303</v>
+        <v>800.624020191072</v>
       </c>
       <c r="R13">
-        <v>613.187463074303</v>
+        <v>7205.616181719648</v>
       </c>
       <c r="S13">
-        <v>0.06548484882689368</v>
+        <v>0.06653070957919437</v>
       </c>
       <c r="T13">
-        <v>0.06548484882689368</v>
+        <v>0.06653070957919437</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H14">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I14">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J14">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N14">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O14">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P14">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q14">
-        <v>59.91201787538851</v>
+        <v>75.36209487634599</v>
       </c>
       <c r="R14">
-        <v>59.91201787538851</v>
+        <v>678.258853887114</v>
       </c>
       <c r="S14">
-        <v>0.006398254481286678</v>
+        <v>0.006262482165225673</v>
       </c>
       <c r="T14">
-        <v>0.006398254481286678</v>
+        <v>0.006262482165225672</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H15">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I15">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J15">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N15">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O15">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P15">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q15">
-        <v>96.03410147276003</v>
+        <v>105.5398314795193</v>
       </c>
       <c r="R15">
-        <v>96.03410147276003</v>
+        <v>949.858483315674</v>
       </c>
       <c r="S15">
-        <v>0.01025588257405096</v>
+        <v>0.008770208862238827</v>
       </c>
       <c r="T15">
-        <v>0.01025588257405096</v>
+        <v>0.008770208862238827</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H16">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I16">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J16">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.536034250878437</v>
+        <v>0.684233</v>
       </c>
       <c r="N16">
-        <v>0.536034250878437</v>
+        <v>2.052699</v>
       </c>
       <c r="O16">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="P16">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="Q16">
-        <v>129.2522124160161</v>
+        <v>171.747282210262</v>
       </c>
       <c r="R16">
-        <v>129.2522124160161</v>
+        <v>1545.725539892358</v>
       </c>
       <c r="S16">
-        <v>0.01380338330494981</v>
+        <v>0.01427195320847344</v>
       </c>
       <c r="T16">
-        <v>0.01380338330494981</v>
+        <v>0.01427195320847344</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H17">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N17">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O17">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P17">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q17">
-        <v>190.8093441689141</v>
+        <v>400.6999205259889</v>
       </c>
       <c r="R17">
-        <v>190.8093441689141</v>
+        <v>3606.2992847339</v>
       </c>
       <c r="S17">
-        <v>0.02037732636445956</v>
+        <v>0.03329758959087762</v>
       </c>
       <c r="T17">
-        <v>0.02037732636445956</v>
+        <v>0.03329758959087762</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H18">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N18">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O18">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P18">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q18">
-        <v>339.48849317663</v>
+        <v>829.4090506646561</v>
       </c>
       <c r="R18">
-        <v>339.48849317663</v>
+        <v>7464.681455981904</v>
       </c>
       <c r="S18">
-        <v>0.03625539332242946</v>
+        <v>0.06892270439120268</v>
       </c>
       <c r="T18">
-        <v>0.03625539332242946</v>
+        <v>0.0689227043912027</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H19">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N19">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O19">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P19">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q19">
-        <v>33.17002042036586</v>
+        <v>78.07160663574967</v>
       </c>
       <c r="R19">
-        <v>33.17002042036586</v>
+        <v>702.644459721747</v>
       </c>
       <c r="S19">
-        <v>0.003542364943213828</v>
+        <v>0.006487638712394063</v>
       </c>
       <c r="T19">
-        <v>0.003542364943213828</v>
+        <v>0.006487638712394064</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H20">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N20">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O20">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P20">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q20">
-        <v>53.16885025519232</v>
+        <v>109.3343307559586</v>
       </c>
       <c r="R20">
-        <v>53.16885025519232</v>
+        <v>984.0089768036271</v>
       </c>
       <c r="S20">
-        <v>0.005678123462937003</v>
+        <v>0.009085526318363854</v>
       </c>
       <c r="T20">
-        <v>0.005678123462937003</v>
+        <v>0.009085526318363856</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H21">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.536034250878437</v>
+        <v>0.684233</v>
       </c>
       <c r="N21">
-        <v>0.536034250878437</v>
+        <v>2.052699</v>
       </c>
       <c r="O21">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="P21">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="Q21">
-        <v>71.55990863358842</v>
+        <v>177.9221540945677</v>
       </c>
       <c r="R21">
-        <v>71.55990863358842</v>
+        <v>1601.299386851109</v>
       </c>
       <c r="S21">
-        <v>0.007642181357463639</v>
+        <v>0.01478507621960347</v>
       </c>
       <c r="T21">
-        <v>0.007642181357463639</v>
+        <v>0.01478507621960348</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H22">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N22">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O22">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P22">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q22">
-        <v>35.53736299408094</v>
+        <v>41.72526192502222</v>
       </c>
       <c r="R22">
-        <v>35.53736299408094</v>
+        <v>375.5273573251999</v>
       </c>
       <c r="S22">
-        <v>0.003795183338723681</v>
+        <v>0.003467309515129167</v>
       </c>
       <c r="T22">
-        <v>0.003795183338723681</v>
+        <v>0.003467309515129167</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H23">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N23">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O23">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P23">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q23">
-        <v>63.22817085756211</v>
+        <v>86.36714935340801</v>
       </c>
       <c r="R23">
-        <v>63.22817085756211</v>
+        <v>777.304344180672</v>
       </c>
       <c r="S23">
-        <v>0.006752400300961039</v>
+        <v>0.007176986432961593</v>
       </c>
       <c r="T23">
-        <v>0.006752400300961039</v>
+        <v>0.007176986432961594</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H24">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N24">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O24">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P24">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q24">
-        <v>6.177763784755256</v>
+        <v>8.129670281710666</v>
       </c>
       <c r="R24">
-        <v>6.177763784755256</v>
+        <v>73.167032535396</v>
       </c>
       <c r="S24">
-        <v>0.0006597491825822524</v>
+        <v>0.0006755639586706607</v>
       </c>
       <c r="T24">
-        <v>0.0006597491825822524</v>
+        <v>0.0006755639586706608</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H25">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N25">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O25">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P25">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q25">
-        <v>9.902453885193584</v>
+        <v>11.38508732969289</v>
       </c>
       <c r="R25">
-        <v>9.902453885193584</v>
+        <v>102.465785967236</v>
       </c>
       <c r="S25">
-        <v>0.001057524386483764</v>
+        <v>0.0009460844535800874</v>
       </c>
       <c r="T25">
-        <v>0.001057524386483764</v>
+        <v>0.0009460844535800875</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H26">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.536034250878437</v>
+        <v>0.684233</v>
       </c>
       <c r="N26">
-        <v>0.536034250878437</v>
+        <v>2.052699</v>
       </c>
       <c r="O26">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="P26">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="Q26">
-        <v>13.32770394453985</v>
+        <v>18.52720228173467</v>
       </c>
       <c r="R26">
-        <v>13.32770394453985</v>
+        <v>166.744820535612</v>
       </c>
       <c r="S26">
-        <v>0.001423321138436306</v>
+        <v>0.00153958397854077</v>
       </c>
       <c r="T26">
-        <v>0.001423321138436306</v>
+        <v>0.00153958397854077</v>
       </c>
     </row>
   </sheetData>
